--- a/OMAVIAT/Resources/schedule/b2-changes.xlsx
+++ b/OMAVIAT/Resources/schedule/b2-changes.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AA73E0-2426-4F21-B66A-ED8B97821AB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="403"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="403" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="02.09" sheetId="450" r:id="rId1"/>
+    <sheet name="03.09" sheetId="451" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="83">
   <si>
     <t>УТВЕРЖДАЮ</t>
   </si>
@@ -170,13 +172,112 @@
   </si>
   <si>
     <t>Информ+ 2пг</t>
+  </si>
+  <si>
+    <t>библ</t>
+  </si>
+  <si>
+    <t>Литерат</t>
+  </si>
+  <si>
+    <t>Алданазарова М.К.</t>
+  </si>
+  <si>
+    <t>РусскЯз</t>
+  </si>
+  <si>
+    <t>ОПД</t>
+  </si>
+  <si>
+    <t>Пленкова Е.В.</t>
+  </si>
+  <si>
+    <t>ОБЗР</t>
+  </si>
+  <si>
+    <t>Архипова Т.Г.</t>
+  </si>
+  <si>
+    <t>Д213</t>
+  </si>
+  <si>
+    <t>ИнЯзПД</t>
+  </si>
+  <si>
+    <t>Д223</t>
+  </si>
+  <si>
+    <t>ИнЯзПД 1пг</t>
+  </si>
+  <si>
+    <t>ЭМ213</t>
+  </si>
+  <si>
+    <t>Д312</t>
+  </si>
+  <si>
+    <t>РД312</t>
+  </si>
+  <si>
+    <t>ОхрТруд</t>
+  </si>
+  <si>
+    <t>отмена</t>
+  </si>
+  <si>
+    <t>КП</t>
+  </si>
+  <si>
+    <t>Тоненький А.В.</t>
+  </si>
+  <si>
+    <t>С312</t>
+  </si>
+  <si>
+    <t>КПро</t>
+  </si>
+  <si>
+    <t>Мартынова Е.А.</t>
+  </si>
+  <si>
+    <t>Изменения в расписании на 03 сентября (вторник)</t>
+  </si>
+  <si>
+    <t>БС223</t>
+  </si>
+  <si>
+    <t>Строк А.В.</t>
+  </si>
+  <si>
+    <t>ЭМ312</t>
+  </si>
+  <si>
+    <t>САПР 1пг</t>
+  </si>
+  <si>
+    <t>Соловьев А.А.</t>
+  </si>
+  <si>
+    <t>ЭлБез</t>
+  </si>
+  <si>
+    <t>ЭМ421</t>
+  </si>
+  <si>
+    <t>ОснТехЭ</t>
+  </si>
+  <si>
+    <t>ТехРег</t>
+  </si>
+  <si>
+    <t>Эл/Тех*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -353,6 +454,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -651,24 +758,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.140625" style="20" customWidth="1"/>
     <col min="2" max="2" width="7.140625" style="23" customWidth="1"/>
@@ -687,7 +794,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -701,7 +808,7 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -713,7 +820,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -727,7 +834,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -741,7 +848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -753,7 +860,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -765,7 +872,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -775,47 +882,47 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="30"/>
+      <c r="K7" s="32"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:14" ht="38.25" customHeight="1">
+    <row r="10" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -850,12 +957,12 @@
         <v>17</v>
       </c>
       <c r="L10" s="16"/>
-      <c r="M10" s="27" t="s">
+      <c r="M10" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="N10" s="28"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="N10" s="30"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>1</v>
       </c>
@@ -897,7 +1004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="14.25" customHeight="1">
+    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>1</v>
       </c>
@@ -939,7 +1046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.25" customHeight="1">
+    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>1</v>
       </c>
@@ -981,7 +1088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>1</v>
       </c>
@@ -1023,7 +1130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="13.5" customHeight="1">
+    <row r="15" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>1</v>
       </c>
@@ -1065,7 +1172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="13.5" customHeight="1">
+    <row r="16" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>1</v>
       </c>
@@ -1107,7 +1214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="13.5" customHeight="1">
+    <row r="17" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>1</v>
       </c>
@@ -1144,7 +1251,7 @@
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
     </row>
-    <row r="18" spans="1:13" ht="13.5" customHeight="1">
+    <row r="18" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>1</v>
       </c>
@@ -1181,7 +1288,7 @@
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
     </row>
-    <row r="19" spans="1:13" ht="13.5" customHeight="1">
+    <row r="19" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>1</v>
       </c>
@@ -1218,7 +1325,7 @@
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
     </row>
-    <row r="20" spans="1:13" ht="13.5" customHeight="1">
+    <row r="20" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>3</v>
       </c>
@@ -1255,7 +1362,7 @@
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -1269,7 +1376,7 @@
       <c r="K21" s="25"/>
       <c r="L21" s="16"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
       <c r="B22" s="17"/>
       <c r="C22" s="21"/>
@@ -1283,7 +1390,7 @@
       <c r="K22" s="25"/>
       <c r="L22" s="15"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
       <c r="B23" s="17"/>
       <c r="C23" s="21"/>
@@ -1297,7 +1404,7 @@
       <c r="K23" s="25"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
       <c r="B24" s="17"/>
       <c r="C24" s="21"/>
@@ -1311,23 +1418,23 @@
       <c r="K24" s="25"/>
       <c r="L24" s="15"/>
     </row>
-    <row r="25" spans="1:13" ht="12.75" customHeight="1">
+    <row r="25" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
       <c r="B25" s="17"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
       <c r="L25" s="15"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
       <c r="B26" s="17"/>
       <c r="C26" s="21"/>
@@ -1340,7 +1447,7 @@
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
       <c r="B27" s="17"/>
       <c r="C27" s="21"/>
@@ -1353,7 +1460,7 @@
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
       <c r="B28" s="17"/>
       <c r="C28" s="21"/>
@@ -1366,7 +1473,7 @@
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
     </row>
-    <row r="29" spans="1:13" s="20" customFormat="1">
+    <row r="29" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
       <c r="B29" s="17"/>
       <c r="C29" s="21"/>
@@ -1380,7 +1487,7 @@
       <c r="K29" s="25"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" s="20" customFormat="1">
+    <row r="30" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
       <c r="B30" s="17"/>
       <c r="C30" s="21"/>
@@ -1394,7 +1501,7 @@
       <c r="K30" s="25"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" s="20" customFormat="1">
+    <row r="31" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
       <c r="B31" s="17"/>
       <c r="C31" s="21"/>
@@ -1408,7 +1515,7 @@
       <c r="K31" s="25"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" s="20" customFormat="1">
+    <row r="32" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
       <c r="B32" s="17"/>
       <c r="C32" s="21"/>
@@ -1422,7 +1529,7 @@
       <c r="K32" s="25"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:14" s="20" customFormat="1">
+    <row r="33" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
       <c r="B33" s="17"/>
       <c r="C33" s="21"/>
@@ -1436,7 +1543,7 @@
       <c r="K33" s="25"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:14" s="20" customFormat="1">
+    <row r="34" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
       <c r="B34" s="17"/>
       <c r="C34" s="21"/>
@@ -1450,7 +1557,7 @@
       <c r="K34" s="25"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:14" s="20" customFormat="1">
+    <row r="35" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
       <c r="B35" s="17"/>
       <c r="C35" s="21"/>
@@ -1464,7 +1571,7 @@
       <c r="K35" s="25"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:14" s="20" customFormat="1">
+    <row r="36" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
       <c r="B36" s="17"/>
       <c r="C36" s="10"/>
@@ -1478,7 +1585,7 @@
       <c r="K36" s="14"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:14" s="20" customFormat="1">
+    <row r="37" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="17"/>
       <c r="C37" s="10"/>
@@ -1492,7 +1599,7 @@
       <c r="K37" s="14"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:14" s="20" customFormat="1">
+    <row r="38" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="17"/>
       <c r="C38" s="9"/>
@@ -1506,7 +1613,7 @@
       <c r="K38" s="13"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:14" s="20" customFormat="1">
+    <row r="39" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="B39" s="17"/>
       <c r="C39" s="9"/>
@@ -1520,7 +1627,7 @@
       <c r="K39" s="13"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:14" s="20" customFormat="1">
+    <row r="40" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="B40" s="17"/>
       <c r="C40" s="9"/>
@@ -1534,7 +1641,7 @@
       <c r="K40" s="13"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:14" s="20" customFormat="1">
+    <row r="41" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="17"/>
       <c r="C41" s="9"/>
@@ -1542,7 +1649,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" s="20" customFormat="1">
+    <row r="42" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="17"/>
       <c r="C42" s="9"/>
@@ -1569,4 +1676,1182 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="20" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="12" style="20" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="3.140625" style="20" customWidth="1"/>
+    <col min="13" max="13" width="6" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="32"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="30"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="8">
+        <v>202</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="8">
+        <v>103</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="7">
+        <v>3</v>
+      </c>
+      <c r="I12" s="8">
+        <v>404</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="6">
+        <v>2</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="6">
+        <v>3</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3</v>
+      </c>
+      <c r="D14" s="8">
+        <v>403</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="6">
+        <v>4</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="7">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8">
+        <v>305</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="7">
+        <v>4</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="6">
+        <v>5</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>2</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6</v>
+      </c>
+      <c r="D16" s="8">
+        <v>202</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="7">
+        <v>6</v>
+      </c>
+      <c r="I16" s="8">
+        <v>103</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="6">
+        <v>6</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>2</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="7">
+        <v>4</v>
+      </c>
+      <c r="D17" s="8">
+        <v>202</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="7">
+        <v>4</v>
+      </c>
+      <c r="I17" s="8">
+        <v>103</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+    </row>
+    <row r="18" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>2</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5</v>
+      </c>
+      <c r="D18" s="8">
+        <v>202</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="7">
+        <v>5</v>
+      </c>
+      <c r="I18" s="8">
+        <v>103</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+    </row>
+    <row r="19" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>3</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3</v>
+      </c>
+      <c r="D19" s="8">
+        <v>202</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3</v>
+      </c>
+      <c r="I19" s="8">
+        <v>103</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+    </row>
+    <row r="20" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>3</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="8">
+        <v>208</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="7">
+        <v>2</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+    </row>
+    <row r="21" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>3</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="7">
+        <v>4</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="7">
+        <v>4</v>
+      </c>
+      <c r="I21" s="8">
+        <v>216</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+    </row>
+    <row r="22" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>3</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <v>202</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="8">
+        <v>103</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+    </row>
+    <row r="23" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>3</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>216</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="7">
+        <v>2</v>
+      </c>
+      <c r="I23" s="8">
+        <v>305</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+    </row>
+    <row r="24" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>3</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="7">
+        <v>3</v>
+      </c>
+      <c r="D24" s="8">
+        <v>305</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+    </row>
+    <row r="25" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>4</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="7">
+        <v>3</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3</v>
+      </c>
+      <c r="I25" s="8">
+        <v>305</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+    </row>
+    <row r="26" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>4</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="7">
+        <v>4</v>
+      </c>
+      <c r="D26" s="8">
+        <v>216</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4</v>
+      </c>
+      <c r="I26" s="8">
+        <v>305</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+    </row>
+    <row r="27" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>4</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="7">
+        <v>5</v>
+      </c>
+      <c r="D27" s="8">
+        <v>305</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="7">
+        <v>5</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" s="8"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+    </row>
+    <row r="28" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>4</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="7">
+        <v>6</v>
+      </c>
+      <c r="D28" s="8">
+        <v>305</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="7">
+        <v>6</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="8"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="16"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="15"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="15"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="15"/>
+    </row>
+    <row r="33" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="15"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+    </row>
+    <row r="37" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="10"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="14"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="10"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="14"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="9"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="9"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="15"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="9"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E33:K33"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="M10:N10"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/OMAVIAT/Resources/schedule/b2-changes.xlsx
+++ b/OMAVIAT/Resources/schedule/b2-changes.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AA73E0-2426-4F21-B66A-ED8B97821AB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8F0CC4-90EE-4FD8-A1C9-0F41342AF158}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="403" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="403" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="02.09" sheetId="450" r:id="rId1"/>
-    <sheet name="03.09" sheetId="451" r:id="rId2"/>
+    <sheet name="01.10" sheetId="475" r:id="rId1"/>
+    <sheet name="02.10" sheetId="476" r:id="rId2"/>
+    <sheet name="03.10" sheetId="477" r:id="rId3"/>
+    <sheet name="04.10" sheetId="478" r:id="rId4"/>
+    <sheet name="05.10" sheetId="479" r:id="rId5"/>
+    <sheet name="07.10" sheetId="480" r:id="rId6"/>
+    <sheet name="08.10" sheetId="481" r:id="rId7"/>
+    <sheet name="09.10" sheetId="482" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="141">
   <si>
     <t>УТВЕРЖДАЮ</t>
   </si>
@@ -96,181 +102,355 @@
     <t>спорт</t>
   </si>
   <si>
+    <t>Смолина Т.Н.</t>
+  </si>
+  <si>
+    <t>Матем</t>
+  </si>
+  <si>
+    <t>БС124</t>
+  </si>
+  <si>
+    <t>БС114</t>
+  </si>
+  <si>
+    <t>РД114</t>
+  </si>
+  <si>
+    <t>С114</t>
+  </si>
+  <si>
+    <t>ИнЯзык 1пг</t>
+  </si>
+  <si>
+    <t>Д223</t>
+  </si>
+  <si>
+    <t>ИнЯзПД 1пг</t>
+  </si>
+  <si>
+    <t>ЭМ213</t>
+  </si>
+  <si>
+    <t>отмена</t>
+  </si>
+  <si>
+    <t>БС223</t>
+  </si>
+  <si>
+    <t>Соловьев А.А.</t>
+  </si>
+  <si>
+    <t>Д114</t>
+  </si>
+  <si>
+    <t>Ташмакова В.Г.</t>
+  </si>
+  <si>
+    <t>Д411</t>
+  </si>
+  <si>
+    <t>Физика</t>
+  </si>
+  <si>
+    <t>ИнЯзык</t>
+  </si>
+  <si>
+    <t>Географ</t>
+  </si>
+  <si>
+    <t>МатВед</t>
+  </si>
+  <si>
+    <t>Корнюшина В.В.</t>
+  </si>
+  <si>
+    <t>Шнитова Л.В.</t>
+  </si>
+  <si>
+    <t>вакансия</t>
+  </si>
+  <si>
+    <t>Изменения в расписании на 01 октября (вторник)</t>
+  </si>
+  <si>
+    <t>Даниелян А.Х.</t>
+  </si>
+  <si>
+    <t>ЭМ411</t>
+  </si>
+  <si>
+    <t>ОснТехЭ</t>
+  </si>
+  <si>
+    <t>Мартынова Е.А.</t>
+  </si>
+  <si>
+    <t>ЭМ421</t>
+  </si>
+  <si>
+    <t>Изменения в расписании на 02 октября (среда)</t>
+  </si>
+  <si>
+    <t>дист</t>
+  </si>
+  <si>
+    <t>Информ</t>
+  </si>
+  <si>
+    <t>Высоцкая А.В.</t>
+  </si>
+  <si>
+    <t>Д124</t>
+  </si>
+  <si>
+    <t>ОПД</t>
+  </si>
+  <si>
+    <t>Барабаш И.С.</t>
+  </si>
+  <si>
+    <t>ОБЗР</t>
+  </si>
+  <si>
+    <t>Архипова Т.Г.</t>
+  </si>
+  <si>
+    <t>Химия</t>
+  </si>
+  <si>
+    <t>Краснова Т.В.</t>
+  </si>
+  <si>
+    <t>ЭМ124</t>
+  </si>
+  <si>
+    <t>Литерат</t>
+  </si>
+  <si>
+    <t>Алданазарова М.К.</t>
+  </si>
+  <si>
+    <t>Д213</t>
+  </si>
+  <si>
+    <t>ТехМех</t>
+  </si>
+  <si>
+    <t>Лукьянчикова И.А.</t>
+  </si>
+  <si>
+    <t>С213</t>
+  </si>
+  <si>
+    <t>Косинцева А.В.</t>
+  </si>
+  <si>
+    <t>Энгельс Г.Ю.</t>
+  </si>
+  <si>
+    <t>ЭМ312</t>
+  </si>
+  <si>
+    <t>РД322</t>
+  </si>
+  <si>
+    <t>КП</t>
+  </si>
+  <si>
+    <t>Тоненький А.В.</t>
+  </si>
+  <si>
+    <t>ЭлПрив</t>
+  </si>
+  <si>
+    <t>ПланСП</t>
+  </si>
+  <si>
+    <t>ЭМ114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИнЯзПД </t>
+  </si>
+  <si>
+    <t>БС213</t>
+  </si>
+  <si>
+    <t>Резанов А.В.</t>
+  </si>
+  <si>
+    <t>ИнжГраф 1пг</t>
+  </si>
+  <si>
+    <t>ИнжГраф 2пг</t>
+  </si>
+  <si>
+    <t>C411</t>
+  </si>
+  <si>
+    <t>Изменения в расписании на 03 октября (четверг)</t>
+  </si>
+  <si>
+    <t>08:00 - 09:20</t>
+  </si>
+  <si>
+    <t>09:30 - 10:50</t>
+  </si>
+  <si>
+    <t>11:45 - 13:05</t>
+  </si>
+  <si>
+    <t>14:20 - 15:40</t>
+  </si>
+  <si>
+    <t>15:50 - 17:10</t>
+  </si>
+  <si>
+    <t>17:20 - 18:40</t>
+  </si>
+  <si>
+    <t>библ</t>
+  </si>
+  <si>
+    <t>Пономарев С.В.</t>
+  </si>
+  <si>
+    <t>Метрол</t>
+  </si>
+  <si>
+    <t>Захаров К.Е.</t>
+  </si>
+  <si>
+    <t>Д312</t>
+  </si>
+  <si>
+    <t>Д322</t>
+  </si>
+  <si>
+    <t>ОТП</t>
+  </si>
+  <si>
+    <t>С312</t>
+  </si>
+  <si>
+    <t>ИспКач</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИнЯзык </t>
+  </si>
+  <si>
+    <t>С411</t>
+  </si>
+  <si>
+    <t>Метрол*</t>
+  </si>
+  <si>
+    <t>Изменения в расписании на 04 октября (пятница)</t>
+  </si>
+  <si>
+    <t>Биолог</t>
+  </si>
+  <si>
+    <t>Ищанова А.А.</t>
+  </si>
+  <si>
     <t>Жарский Л.В.</t>
   </si>
   <si>
-    <t>Высоцкая А.В.</t>
-  </si>
-  <si>
-    <t>Смолина Т.Н.</t>
-  </si>
-  <si>
-    <t>Информ</t>
-  </si>
-  <si>
     <t>ИТПД</t>
   </si>
   <si>
     <t>Якубовский А.Я.</t>
   </si>
   <si>
-    <t>Матем</t>
-  </si>
-  <si>
-    <t>БС124</t>
-  </si>
-  <si>
-    <t>БС114</t>
-  </si>
-  <si>
-    <t>Д124</t>
-  </si>
-  <si>
-    <t>РД114</t>
-  </si>
-  <si>
-    <t>Осокин М.А.</t>
-  </si>
-  <si>
-    <t>бол</t>
-  </si>
-  <si>
-    <t>С114</t>
-  </si>
-  <si>
-    <t>ЭМ124</t>
-  </si>
-  <si>
-    <t>РД322</t>
-  </si>
-  <si>
-    <t>ПОПД</t>
-  </si>
-  <si>
-    <t>Ральникова Ю.С.</t>
-  </si>
-  <si>
-    <t>Вакансия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вакансия </t>
-  </si>
-  <si>
-    <t>Изменения в расписании на 02 сентября (понедельник)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ИнЯзык 1пг</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ИнЯзык 2пг</t>
-  </si>
-  <si>
-    <t>ИнЯзык 1пг</t>
-  </si>
-  <si>
-    <t>Информ+ 1пг</t>
-  </si>
-  <si>
-    <t>Информ+ 2пг</t>
-  </si>
-  <si>
-    <t>библ</t>
-  </si>
-  <si>
-    <t>Литерат</t>
-  </si>
-  <si>
-    <t>Алданазарова М.К.</t>
-  </si>
-  <si>
     <t>РусскЯз</t>
   </si>
   <si>
-    <t>ОПД</t>
-  </si>
-  <si>
-    <t>Пленкова Е.В.</t>
-  </si>
-  <si>
-    <t>ОБЗР</t>
-  </si>
-  <si>
-    <t>Архипова Т.Г.</t>
-  </si>
-  <si>
-    <t>Д213</t>
-  </si>
-  <si>
-    <t>ИнЯзПД</t>
-  </si>
-  <si>
-    <t>Д223</t>
-  </si>
-  <si>
-    <t>ИнЯзПД 1пг</t>
-  </si>
-  <si>
-    <t>ЭМ213</t>
-  </si>
-  <si>
-    <t>Д312</t>
-  </si>
-  <si>
-    <t>РД312</t>
-  </si>
-  <si>
-    <t>ОхрТруд</t>
-  </si>
-  <si>
-    <t>отмена</t>
-  </si>
-  <si>
-    <t>КП</t>
-  </si>
-  <si>
-    <t>Тоненький А.В.</t>
-  </si>
-  <si>
-    <t>С312</t>
-  </si>
-  <si>
-    <t>КПро</t>
-  </si>
-  <si>
-    <t>Мартынова Е.А.</t>
-  </si>
-  <si>
-    <t>Изменения в расписании на 03 сентября (вторник)</t>
-  </si>
-  <si>
-    <t>БС223</t>
+    <t>08:00 - 08:50</t>
+  </si>
+  <si>
+    <t>09:00 - 09:50</t>
+  </si>
+  <si>
+    <t>10:10 - 11:00</t>
+  </si>
+  <si>
+    <t>11:10 - 12:00</t>
+  </si>
+  <si>
+    <t>13:10 - 14:00</t>
+  </si>
+  <si>
+    <t>12:10 - 13:00</t>
+  </si>
+  <si>
+    <t>Изменения в расписании на 05 октября (суббота)</t>
+  </si>
+  <si>
+    <t>БЖД</t>
+  </si>
+  <si>
+    <t>История</t>
+  </si>
+  <si>
+    <t>Остапенко Е.А.</t>
+  </si>
+  <si>
+    <t>ОКД</t>
+  </si>
+  <si>
+    <t>ИнЯзПД 2пг</t>
+  </si>
+  <si>
+    <t>Изменения в расписании на 07 октября (понедельник)</t>
+  </si>
+  <si>
+    <t>2 учебная неделя</t>
+  </si>
+  <si>
+    <t>ИнЯзык 2пг</t>
+  </si>
+  <si>
+    <t>Изменения в расписании на 08 октября (вторник)</t>
+  </si>
+  <si>
+    <t>Философ</t>
+  </si>
+  <si>
+    <t>Ефимов В.С.</t>
+  </si>
+  <si>
+    <t>Аэродин</t>
+  </si>
+  <si>
+    <t>Кузьмин Н.С.</t>
+  </si>
+  <si>
+    <t>ТехРег</t>
   </si>
   <si>
     <t>Строк А.В.</t>
   </si>
   <si>
-    <t>ЭМ312</t>
-  </si>
-  <si>
-    <t>САПР 1пг</t>
-  </si>
-  <si>
-    <t>Соловьев А.А.</t>
-  </si>
-  <si>
-    <t>ЭлБез</t>
-  </si>
-  <si>
-    <t>ЭМ421</t>
-  </si>
-  <si>
-    <t>ОснТехЭ</t>
-  </si>
-  <si>
-    <t>ТехРег</t>
-  </si>
-  <si>
-    <t>Эл/Тех*</t>
+    <t>Изменения в расписании на 09 октября (среда)</t>
+  </si>
+  <si>
+    <t>ОДК</t>
+  </si>
+  <si>
+    <t>Худояров Е.С.</t>
+  </si>
+  <si>
+    <t>Столяров А.А.</t>
+  </si>
+  <si>
+    <t>РусЯзПД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Физика </t>
+  </si>
+  <si>
+    <t>ТСР</t>
   </si>
 </sst>
 </file>
@@ -390,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -454,6 +634,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -769,10 +985,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:K14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -882,44 +1098,44 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="32"/>
+      <c r="K7" s="44"/>
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
+      <c r="A8" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -957,41 +1173,41 @@
         <v>17</v>
       </c>
       <c r="L10" s="16"/>
-      <c r="M10" s="29" t="s">
+      <c r="M10" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="N10" s="30"/>
+      <c r="N10" s="42"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="8">
-        <v>406</v>
+        <v>202</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="I11" s="8">
+        <v>103</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>24</v>
@@ -1009,35 +1225,31 @@
         <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="C12" s="8">
+        <v>3</v>
       </c>
       <c r="D12" s="8">
-        <v>302</v>
+        <v>406</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="8">
-        <v>103</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" s="8"/>
       <c r="J12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>26</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="K12" s="8"/>
       <c r="L12" s="16"/>
       <c r="M12" s="6">
         <v>2</v>
@@ -1046,39 +1258,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2</v>
       </c>
       <c r="D13" s="8">
-        <v>302</v>
+        <v>406</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="8">
-        <v>103</v>
+        <v>402</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="6">
@@ -1088,24 +1300,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>1</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
       </c>
       <c r="D14" s="8">
-        <v>202</v>
+        <v>402</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>5</v>
@@ -1113,15 +1325,11 @@
       <c r="H14" s="7">
         <v>2</v>
       </c>
-      <c r="I14" s="8">
-        <v>103</v>
-      </c>
+      <c r="I14" s="8"/>
       <c r="J14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>26</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="K14" s="8"/>
       <c r="L14" s="16"/>
       <c r="M14" s="6">
         <v>4</v>
@@ -1130,36 +1338,36 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>1</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" s="8">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="I15" s="8">
+        <v>103</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>24</v>
@@ -1172,39 +1380,39 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="8">
-        <v>216</v>
+        <v>406</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8">
+        <v>306</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="8">
-        <v>216</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="6">
@@ -1214,224 +1422,284 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="7">
+        <v>5</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="7">
+        <v>5</v>
+      </c>
+      <c r="I17" s="8">
+        <v>303</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
         <v>2</v>
       </c>
-      <c r="D17" s="8">
-        <v>208</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="8">
-        <v>216</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-    </row>
-    <row r="18" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <v>1</v>
-      </c>
       <c r="B18" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" s="8">
-        <v>302</v>
+        <v>202</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>23</v>
+        <v>5</v>
+      </c>
+      <c r="I18" s="8">
+        <v>103</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>24</v>
       </c>
       <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-    </row>
-    <row r="19" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" s="8">
         <v>202</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H19" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19" s="8">
         <v>103</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-    </row>
-    <row r="20" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D20" s="8">
-        <v>306</v>
+        <v>202</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="7">
+        <v>6</v>
+      </c>
+      <c r="I20" s="8">
+        <v>103</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="8">
-        <v>301</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="K20" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>4</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3</v>
+      </c>
+      <c r="D21" s="8">
+        <v>302</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="7">
+        <v>3</v>
+      </c>
+      <c r="I21" s="8">
+        <v>215</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="L21" s="16"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="15"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="15"/>
+    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>4</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="7">
+        <v>4</v>
+      </c>
+      <c r="D22" s="8">
+        <v>302</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="7">
+        <v>4</v>
+      </c>
+      <c r="I22" s="8">
+        <v>215</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" s="16"/>
+    </row>
+    <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>4</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="7">
+        <v>6</v>
+      </c>
+      <c r="D23" s="8">
+        <v>302</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="7">
+        <v>6</v>
+      </c>
+      <c r="I23" s="8">
+        <v>215</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L23" s="16"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
-      <c r="B24" s="17"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
+      <c r="I24" s="25"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
       <c r="L24" s="15"/>
     </row>
-    <row r="25" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
       <c r="B25" s="17"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
-      <c r="E25" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
       <c r="L25" s="15"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -1443,11 +1711,12 @@
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="21"/>
-      <c r="I26" s="18"/>
+      <c r="I26" s="25"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L26" s="15"/>
+    </row>
+    <row r="27" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
       <c r="B27" s="17"/>
       <c r="C27" s="21"/>
@@ -1456,24 +1725,27 @@
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="21"/>
-      <c r="I27" s="18"/>
+      <c r="I27" s="21"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
+      <c r="L27" s="15"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
       <c r="B28" s="17"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-    </row>
-    <row r="29" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E28" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
       <c r="B29" s="17"/>
       <c r="C29" s="21"/>
@@ -1485,9 +1757,8 @@
       <c r="I29" s="18"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
       <c r="B30" s="17"/>
       <c r="C30" s="21"/>
@@ -1496,10 +1767,9 @@
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
       <c r="H30" s="21"/>
-      <c r="I30" s="25"/>
+      <c r="I30" s="18"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
-      <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
@@ -1510,7 +1780,7 @@
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
       <c r="H31" s="21"/>
-      <c r="I31" s="25"/>
+      <c r="I31" s="18"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
       <c r="M31" s="1"/>
@@ -1524,7 +1794,7 @@
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
       <c r="H32" s="21"/>
-      <c r="I32" s="25"/>
+      <c r="I32" s="18"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
       <c r="M32" s="1"/>
@@ -1534,11 +1804,11 @@
       <c r="B33" s="17"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
-      <c r="E33" s="19"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
       <c r="H33" s="21"/>
-      <c r="I33" s="18"/>
+      <c r="I33" s="25"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
       <c r="M33" s="1"/>
@@ -1548,11 +1818,11 @@
       <c r="B34" s="17"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
-      <c r="E34" s="19"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
       <c r="H34" s="21"/>
-      <c r="I34" s="18"/>
+      <c r="I34" s="25"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
       <c r="M34" s="1"/>
@@ -1562,83 +1832,83 @@
       <c r="B35" s="17"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
-      <c r="E35" s="19"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
       <c r="H35" s="21"/>
-      <c r="I35" s="18"/>
+      <c r="I35" s="25"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
       <c r="M35" s="1"/>
     </row>
     <row r="36" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="17"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="25"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="14"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
       <c r="M36" s="1"/>
     </row>
     <row r="37" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="17"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="25"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="14"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="17"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="25"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
+      <c r="A39" s="10"/>
       <c r="B39" s="17"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="11"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="9"/>
+      <c r="H39" s="10"/>
       <c r="I39" s="14"/>
       <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
+      <c r="K39" s="14"/>
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
+      <c r="A40" s="10"/>
       <c r="B40" s="17"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="15"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="15"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="14"/>
       <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
+      <c r="K40" s="14"/>
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -1646,28 +1916,69 @@
       <c r="B41" s="17"/>
       <c r="C41" s="9"/>
       <c r="D41" s="15"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="17"/>
       <c r="C42" s="9"/>
       <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="16"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="25"/>
       <c r="H42" s="9"/>
-      <c r="I42" s="15"/>
+      <c r="I42" s="14"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="15"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="M10:N10"/>
-    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E28:K28"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A8:K8"/>
     <mergeCell ref="A9:F9"/>
@@ -1683,10 +1994,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1796,44 +2107,44 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="32"/>
+      <c r="K7" s="44"/>
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
+      <c r="A8" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="34" t="s">
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1871,44 +2182,38 @@
         <v>17</v>
       </c>
       <c r="L10" s="16"/>
-      <c r="M10" s="29" t="s">
+      <c r="M10" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="N10" s="30"/>
+      <c r="N10" s="42"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="8">
-        <v>202</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>43</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="8">
-        <v>103</v>
+        <v>4</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="6">
@@ -1923,34 +2228,28 @@
         <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="7">
-        <v>3</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>43</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C12" s="8">
+        <v>4</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="7">
-        <v>3</v>
-      </c>
-      <c r="I12" s="8">
-        <v>404</v>
+        <v>4</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="6">
@@ -1960,39 +2259,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="7">
-        <v>2</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>50</v>
+        <v>29</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>405</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="6">
@@ -2002,24 +2301,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>1</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>3</v>
       </c>
       <c r="D14" s="8">
-        <v>403</v>
+        <v>202</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>5</v>
@@ -2028,13 +2327,13 @@
         <v>3</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="L14" s="16"/>
       <c r="M14" s="6">
@@ -2044,36 +2343,40 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
+        <v>1</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="7">
         <v>2</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="7">
-        <v>4</v>
-      </c>
       <c r="D15" s="8">
-        <v>305</v>
+        <v>202</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="7">
-        <v>4</v>
-      </c>
-      <c r="I15" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="J15" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="L15" s="16"/>
       <c r="M15" s="6">
         <v>5</v>
@@ -2082,39 +2385,33 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
-      </c>
-      <c r="D16" s="8">
-        <v>202</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>43</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
-      </c>
-      <c r="I16" s="8">
-        <v>103</v>
+        <v>4</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="6">
@@ -2124,159 +2421,137 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>2</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17" s="8">
-        <v>202</v>
+        <v>403</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
-      </c>
-      <c r="I17" s="8">
-        <v>103</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I17" s="8"/>
       <c r="J17" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>26</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="K17" s="8"/>
       <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-    </row>
-    <row r="18" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>2</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C18" s="7">
-        <v>5</v>
-      </c>
-      <c r="D18" s="8">
-        <v>202</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>43</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="7">
-        <v>5</v>
-      </c>
-      <c r="I18" s="8">
-        <v>103</v>
+        <v>3</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-    </row>
-    <row r="19" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7">
         <v>3</v>
       </c>
-      <c r="D19" s="8">
-        <v>202</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
       </c>
-      <c r="I19" s="8">
-        <v>103</v>
+      <c r="I19" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-    </row>
-    <row r="20" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C20" s="7">
         <v>2</v>
       </c>
-      <c r="D20" s="8">
-        <v>208</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
       </c>
-      <c r="I20" s="8"/>
+      <c r="I20" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="J20" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20" s="8"/>
+        <v>83</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-    </row>
-    <row r="21" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C21" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2285,26 +2560,25 @@
         <v>5</v>
       </c>
       <c r="H21" s="7">
-        <v>4</v>
-      </c>
-      <c r="I21" s="8">
-        <v>216</v>
+        <v>2</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-    </row>
-    <row r="22" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>3</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
@@ -2313,10 +2587,10 @@
         <v>202</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>5</v>
@@ -2324,359 +2598,3293 @@
       <c r="H22" s="7">
         <v>1</v>
       </c>
-      <c r="I22" s="8">
-        <v>103</v>
+      <c r="I22" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-    </row>
-    <row r="23" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>3</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="7">
+        <v>3</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="7">
+        <v>3</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="7">
-        <v>2</v>
-      </c>
-      <c r="D23" s="8">
-        <v>216</v>
-      </c>
-      <c r="E23" s="8" t="s">
+      <c r="K23" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="7">
-        <v>2</v>
-      </c>
-      <c r="I23" s="8">
-        <v>305</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-    </row>
-    <row r="24" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>3</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C24" s="7">
-        <v>3</v>
-      </c>
-      <c r="D24" s="8">
-        <v>305</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>74</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H24" s="7">
-        <v>3</v>
-      </c>
-      <c r="I24" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="J24" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K24" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-    </row>
-    <row r="25" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>4</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="D25" s="8">
+        <v>103</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="G25" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="8">
-        <v>305</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I25" s="8"/>
       <c r="J25" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>71</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="K25" s="8"/>
       <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-    </row>
-    <row r="26" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>4</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
-        <v>4</v>
-      </c>
-      <c r="D26" s="8">
-        <v>216</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>71</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-    </row>
-    <row r="27" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>4</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="7">
+        <v>4</v>
+      </c>
+      <c r="D27" s="8">
+        <v>302</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="7">
+        <v>4</v>
+      </c>
+      <c r="I27" s="8">
+        <v>215</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L27" s="16"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="15"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="15"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="15"/>
+    </row>
+    <row r="31" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="15"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+    </row>
+    <row r="35" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="14"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="10"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="14"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="9"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="15"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="9"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E32:K32"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="H9:K9"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N45"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="20" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="12" style="20" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="3.140625" style="20" customWidth="1"/>
+    <col min="13" max="13" width="6" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="42"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="8">
+        <v>3</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="7">
+        <v>3</v>
+      </c>
+      <c r="I12" s="8">
+        <v>403</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="6">
+        <v>2</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="8">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8">
+        <v>406</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4</v>
+      </c>
+      <c r="I13" s="8">
+        <v>403</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="6">
+        <v>3</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="7">
-        <v>5</v>
-      </c>
-      <c r="D27" s="8">
-        <v>305</v>
-      </c>
-      <c r="E27" s="8" t="s">
+      <c r="C14" s="7">
+        <v>3</v>
+      </c>
+      <c r="D14" s="8">
+        <v>405</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="I14" s="8">
+        <v>302</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="6">
+        <v>4</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="7">
-        <v>5</v>
-      </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K27" s="8"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-    </row>
-    <row r="28" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+      <c r="C15" s="7">
+        <v>5</v>
+      </c>
+      <c r="D15" s="8">
+        <v>406</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="7">
+        <v>5</v>
+      </c>
+      <c r="I15" s="8">
+        <v>403</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="6">
+        <v>5</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>2</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="7">
         <v>4</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="7">
+      <c r="D16" s="8">
+        <v>202</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4</v>
+      </c>
+      <c r="I16" s="8">
+        <v>103</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="6">
         <v>6</v>
       </c>
-      <c r="D28" s="8">
-        <v>305</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" s="7">
+      <c r="N16" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8">
+        <v>202</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="8">
+        <v>103</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>3</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3</v>
+      </c>
+      <c r="D18" s="8">
+        <v>406</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="7">
+        <v>3</v>
+      </c>
+      <c r="I18" s="8">
+        <v>405</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>3</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
+        <v>202</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8">
+        <v>103</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>4</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="7">
         <v>6</v>
       </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K28" s="8"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
+      <c r="D20" s="8">
+        <v>406</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="7">
+        <v>6</v>
+      </c>
+      <c r="I20" s="8">
+        <v>403</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>4</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="7">
+        <v>3</v>
+      </c>
+      <c r="I21" s="8">
+        <v>103</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>4</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="7">
+        <v>3</v>
+      </c>
+      <c r="D22" s="8">
+        <v>302</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="7">
+        <v>3</v>
+      </c>
+      <c r="I22" s="8">
+        <v>215</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" s="16"/>
+    </row>
+    <row r="23" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>4</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="7">
+        <v>4</v>
+      </c>
+      <c r="D23" s="8">
+        <v>302</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="7">
+        <v>4</v>
+      </c>
+      <c r="I23" s="8">
+        <v>215</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L23" s="16"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="15"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="15"/>
+    </row>
+    <row r="27" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="21"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="15"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="21"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
       <c r="H29" s="21"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="16"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
       <c r="B30" s="17"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
       <c r="H30" s="21"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="15"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I30" s="18"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+    </row>
+    <row r="31" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
       <c r="B31" s="17"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
       <c r="H31" s="21"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="15"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I31" s="18"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
       <c r="B32" s="17"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
       <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="15"/>
-    </row>
-    <row r="33" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I32" s="18"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
       <c r="B33" s="17"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
-      <c r="E33" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="15"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
       <c r="B34" s="17"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
       <c r="H34" s="21"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="14"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="14"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="15"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E28:K28"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="H9:K9"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N40"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="20" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="12" style="20" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="3.140625" style="20" customWidth="1"/>
+    <col min="13" max="13" width="6" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="42"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8">
+        <v>208</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="8">
+        <v>3</v>
+      </c>
+      <c r="D12" s="8">
+        <v>406</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="7">
+        <v>3</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="6">
+        <v>2</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="8">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8">
+        <v>303</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="6">
+        <v>3</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="8">
+        <v>406</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="6">
+        <v>4</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>1</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8">
+        <v>406</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8">
+        <v>404</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="6">
+        <v>5</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>1</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="6">
+        <v>6</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>4</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="7">
+        <v>6</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="7">
+        <v>6</v>
+      </c>
+      <c r="I17" s="8">
+        <v>301</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>4</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="8">
+        <v>302</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="7">
+        <v>4</v>
+      </c>
+      <c r="I18" s="8">
+        <v>215</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="21"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="21"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="15"/>
+    </row>
+    <row r="22" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+    </row>
+    <row r="26" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="21"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="14"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="14"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="15"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="H9:K9"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="20" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="12" style="20" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="3.140625" style="20" customWidth="1"/>
+    <col min="13" max="13" width="6" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="42"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="7">
+        <v>4</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="7">
+        <v>4</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2</v>
+      </c>
+      <c r="D12" s="8">
+        <v>202</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="6">
+        <v>2</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="8">
+        <v>3</v>
+      </c>
+      <c r="D13" s="8">
+        <v>406</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="6">
+        <v>3</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="7">
+        <v>4</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="7">
+        <v>4</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="6">
+        <v>4</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>1</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="6">
+        <v>5</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>1</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="6">
+        <v>6</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>1</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8">
+        <v>406</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="7">
+        <v>4</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>2</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="7">
+        <v>4</v>
+      </c>
+      <c r="D19" s="8">
+        <v>202</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="7">
+        <v>4</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>2</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="7">
+        <v>6</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="7">
+        <v>6</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="7">
+        <v>3</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>2</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L22" s="16"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>2</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="7">
+        <v>3</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="7">
+        <v>3</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" s="16"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>2</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="7">
+        <v>3</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24" s="16"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>2</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="7">
+        <v>5</v>
+      </c>
+      <c r="D25" s="8">
+        <v>202</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="7">
+        <v>5</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="16"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>2</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="7">
+        <v>6</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="7">
+        <v>6</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L26" s="16"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>3</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L27" s="16"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>3</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="7">
+        <v>4</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="7">
+        <v>4</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L28" s="16"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>3</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="7">
+        <v>3</v>
+      </c>
+      <c r="D29" s="8">
+        <v>202</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="7">
+        <v>3</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="16"/>
+    </row>
+    <row r="30" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>4</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="7">
+        <v>6</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="7">
+        <v>6</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L30" s="16"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="15"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="15"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="15"/>
+    </row>
+    <row r="34" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="15"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
       <c r="B35" s="17"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
+      <c r="E35" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
       <c r="B36" s="17"/>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
       <c r="H36" s="21"/>
       <c r="I36" s="18"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-    </row>
-    <row r="37" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
       <c r="B37" s="17"/>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
       <c r="H37" s="21"/>
       <c r="I37" s="18"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="M37" s="1"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
     </row>
     <row r="38" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
       <c r="B38" s="17"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
       <c r="H38" s="21"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -2684,13 +5892,13 @@
       <c r="B39" s="17"/>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
       <c r="H39" s="21"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -2698,13 +5906,13 @@
       <c r="B40" s="17"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
       <c r="H40" s="21"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -2712,13 +5920,13 @@
       <c r="B41" s="17"/>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
       <c r="H41" s="21"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -2726,13 +5934,13 @@
       <c r="B42" s="17"/>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
       <c r="H42" s="21"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -2741,68 +5949,68 @@
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
       <c r="E43" s="19"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
       <c r="H43" s="21"/>
       <c r="I43" s="18"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="17"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="14"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
       <c r="M44" s="1"/>
     </row>
     <row r="45" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="10"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="17"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="14"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
       <c r="M45" s="1"/>
     </row>
     <row r="46" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
+      <c r="A46" s="10"/>
       <c r="B46" s="17"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="11"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
       <c r="F46" s="10"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="12"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="14"/>
       <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
+      <c r="K46" s="14"/>
       <c r="M46" s="1"/>
     </row>
     <row r="47" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
+      <c r="A47" s="10"/>
       <c r="B47" s="17"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="11"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
       <c r="F47" s="10"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="9"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="10"/>
       <c r="I47" s="14"/>
       <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
+      <c r="K47" s="14"/>
       <c r="M47" s="1"/>
     </row>
     <row r="48" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -2810,11 +6018,11 @@
       <c r="B48" s="17"/>
       <c r="C48" s="9"/>
       <c r="D48" s="15"/>
-      <c r="E48" s="10"/>
+      <c r="E48" s="11"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="27"/>
+      <c r="G48" s="33"/>
       <c r="H48" s="9"/>
-      <c r="I48" s="15"/>
+      <c r="I48" s="12"/>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
       <c r="M48" s="1"/>
@@ -2824,17 +6032,23 @@
       <c r="B49" s="17"/>
       <c r="C49" s="9"/>
       <c r="D49" s="15"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
     </row>
     <row r="50" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="B50" s="17"/>
       <c r="C50" s="9"/>
       <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="16"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="33"/>
       <c r="H50" s="9"/>
       <c r="I50" s="15"/>
       <c r="J50" s="13"/>
@@ -2842,14 +6056,3162 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
+    <row r="51" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="9"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="15"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="9"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="E33:K33"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E35:K35"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="H9:K9"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N43"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="20" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="12" style="20" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="3.140625" style="20" customWidth="1"/>
+    <col min="13" max="13" width="6" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="42"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="8">
+        <v>406</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="8">
+        <v>405</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="8">
+        <v>3</v>
+      </c>
+      <c r="D12" s="8">
+        <v>406</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="7">
+        <v>3</v>
+      </c>
+      <c r="I12" s="8">
+        <v>103</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="6">
+        <v>2</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="8">
+        <v>3</v>
+      </c>
+      <c r="D13" s="8">
+        <v>406</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3</v>
+      </c>
+      <c r="I13" s="8">
+        <v>103</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="6">
+        <v>3</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="8">
+        <v>202</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="8">
+        <v>103</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="6">
+        <v>4</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>1</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8">
+        <v>406</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="6">
+        <v>5</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>1</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4</v>
+      </c>
+      <c r="I16" s="8">
+        <v>103</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="6">
+        <v>6</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>1</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7">
+        <v>4</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="7">
+        <v>4</v>
+      </c>
+      <c r="I17" s="8">
+        <v>103</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>2</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5</v>
+      </c>
+      <c r="D18" s="8">
+        <v>202</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="7">
+        <v>5</v>
+      </c>
+      <c r="I18" s="8">
+        <v>103</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>4</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="7">
+        <v>6</v>
+      </c>
+      <c r="D19" s="8">
+        <v>202</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="7">
+        <v>6</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>4</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="7">
+        <v>4</v>
+      </c>
+      <c r="D20" s="8">
+        <v>302</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="7">
+        <v>4</v>
+      </c>
+      <c r="I20" s="8">
+        <v>215</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>4</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="7">
+        <v>5</v>
+      </c>
+      <c r="D21" s="8">
+        <v>302</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="7">
+        <v>5</v>
+      </c>
+      <c r="I21" s="8">
+        <v>215</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="15"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="15"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="15"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="21"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+    </row>
+    <row r="29" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="14"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="14"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="15"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="H9:K9"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="N16" sqref="M11:N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="20" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="12" style="20" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="3.140625" style="20" customWidth="1"/>
+    <col min="13" max="13" width="6" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="42"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="8">
+        <v>303</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="8">
+        <v>302</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="8">
+        <v>3</v>
+      </c>
+      <c r="D12" s="8">
+        <v>202</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="7">
+        <v>3</v>
+      </c>
+      <c r="I12" s="8">
+        <v>103</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="6">
+        <v>2</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8">
+        <v>302</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="6">
+        <v>3</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="6">
+        <v>4</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>1</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="7">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8">
+        <v>404</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="7">
+        <v>4</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="6">
+        <v>5</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>1</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>202</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="8">
+        <v>103</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="6">
+        <v>6</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>1</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8">
+        <v>302</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
+        <v>302</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>1</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3</v>
+      </c>
+      <c r="D19" s="8">
+        <v>303</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3</v>
+      </c>
+      <c r="I19" s="8">
+        <v>404</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>1</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="7">
+        <v>4</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="7">
+        <v>4</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>1</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>303</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>2</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="7">
+        <v>4</v>
+      </c>
+      <c r="D22" s="8">
+        <v>406</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="7">
+        <v>4</v>
+      </c>
+      <c r="I22" s="8">
+        <v>303</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L22" s="16"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>2</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="7">
+        <v>4</v>
+      </c>
+      <c r="D23" s="8">
+        <v>216</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="7">
+        <v>4</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="16"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>2</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="7">
+        <v>5</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="7">
+        <v>5</v>
+      </c>
+      <c r="I24" s="8">
+        <v>303</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L24" s="16"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>2</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="7">
+        <v>5</v>
+      </c>
+      <c r="D25" s="8">
+        <v>406</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="7">
+        <v>5</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25" s="16"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>3</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="8">
+        <v>406</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2</v>
+      </c>
+      <c r="I26" s="8">
+        <v>303</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L26" s="16"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>3</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3</v>
+      </c>
+      <c r="D27" s="8">
+        <v>404</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="16"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>3</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8">
+        <v>202</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="8">
+        <v>103</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="16"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>4</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="7">
+        <v>3</v>
+      </c>
+      <c r="D29" s="8">
+        <v>406</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="7">
+        <v>3</v>
+      </c>
+      <c r="I29" s="8">
+        <v>303</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L29" s="16"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>4</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="7">
+        <v>3</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="7">
+        <v>3</v>
+      </c>
+      <c r="I30" s="8">
+        <v>305</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="L30" s="16"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="15"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="15"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="15"/>
+    </row>
+    <row r="34" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="15"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+    </row>
+    <row r="38" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="10"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="14"/>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="10"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="14"/>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="9"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="9"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="9"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="9"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="15"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="9"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E35:K35"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="H9:K9"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3340AD5-6A6D-4D3A-A4E3-620A039326EB}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="20" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="12" style="20" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="3.140625" style="20" customWidth="1"/>
+    <col min="13" max="13" width="6" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="K7" s="44"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="42"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
+        <v>402</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="8">
+        <v>404</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2</v>
+      </c>
+      <c r="I12" s="8">
+        <v>306</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="6">
+        <v>2</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8">
+        <v>402</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="6">
+        <v>3</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="6">
+        <v>4</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>1</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2</v>
+      </c>
+      <c r="D15" s="8">
+        <v>403</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="7">
+        <v>2</v>
+      </c>
+      <c r="I15" s="8">
+        <v>404</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="6">
+        <v>5</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>1</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>202</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="8">
+        <v>103</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="6">
+        <v>6</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>1</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3</v>
+      </c>
+      <c r="D17" s="8">
+        <v>202</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3</v>
+      </c>
+      <c r="I17" s="8">
+        <v>103</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
+        <v>403</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8">
+        <v>306</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>1</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="7">
+        <v>4</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="7">
+        <v>4</v>
+      </c>
+      <c r="I19" s="8">
+        <v>402</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>2</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="7">
+        <v>4</v>
+      </c>
+      <c r="D20" s="8">
+        <v>202</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="7">
+        <v>4</v>
+      </c>
+      <c r="I20" s="8">
+        <v>103</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>3</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>406</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8">
+        <v>403</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>4</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="7">
+        <v>4</v>
+      </c>
+      <c r="D22" s="8">
+        <v>406</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="7">
+        <v>4</v>
+      </c>
+      <c r="I22" s="8">
+        <v>405</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L22" s="16"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="15"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="15"/>
+    </row>
+    <row r="26" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="15"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="21"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+    </row>
+    <row r="30" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="21"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="14"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="14"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="15"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A8:K8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E27:K27"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
